--- a/Оптимизация.xlsx
+++ b/Оптимизация.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Word-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379FF610-3AB7-46C8-AE25-39B448407FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15A78B5-FD26-4BD3-AFAE-5856B1829E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9FA4A23B-78DC-4BED-9E7B-356D0EF157A8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$12</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$10</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -46,7 +46,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -490,7 +490,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -591,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -603,7 +603,7 @@
       </c>
       <c r="B10">
         <f>B8*15+B9*55</f>
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="B11">
         <f>B8*B6+B9*B7</f>
-        <v>13953000</v>
+        <v>13814000</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -627,7 +627,7 @@
       </c>
       <c r="B12">
         <f>B2-B11</f>
-        <v>47000</v>
+        <v>186000</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
